--- a/src/pages/Admin/User/ExampleFile.xlsx
+++ b/src/pages/Admin/User/ExampleFile.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hcmute\full-stack\font-end\FrameWork\ReactJS\HoiDanIT\Thực Hành Bài Test Fresher React Frontend\Source\Udemy-Base-Test-Fresher\src\pages\Admin\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hcmute\WebAdv\Source\Fontend\src\pages\Admin\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B19691F-4CFE-41D8-8A5A-DE03DEB139E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449AC6E1-47C3-4731-A4BF-246A5EB83333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tên Hiển Thị</t>
   </si>
@@ -28,35 +33,23 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Số Điện Thoại</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>1a@gmail.com</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>1b@gmail.com</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>1c@gmail.com</t>
-  </si>
-  <si>
-    <t/>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>124@gmail.com</t>
+  </si>
+  <si>
+    <t>125@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,17 +58,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,14 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -102,34 +83,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,44 +124,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -219,12 +191,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -263,260 +235,211 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>123</v>
+      <c r="C3" s="1">
+        <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9CCFA7A6-25EE-4F5C-A08B-EE77EEB67452}"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="123@gmail.com" xr:uid="{55BEA75A-6353-469D-AB0F-6A6489770C6A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{90BDC349-2F49-415C-9C96-4D9C15C0B042}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{88D7065D-363A-4C56-BC48-F8E72C0BCA79}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>